--- a/dtpu_configurations/only_integer8/80mhz/mxu_18x18/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/80mhz/mxu_18x18/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>33.91165542602539</v>
+        <v>43.21992492675781</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.597701549530029</v>
+        <v>6.620689392089844</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>21.01785659790039</v>
+        <v>27.603384017944336</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>100.0</v>
